--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:26:15+00:00</t>
+    <t>2024-07-22T12:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:50:44+00:00</t>
+    <t>2024-07-22T13:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T13:02:51+00:00</t>
+    <t>2024-07-22T14:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T14:37:38+00:00</t>
+    <t>2024-08-29T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:05:10+00:00</t>
+    <t>2024-08-30T08:51:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T08:51:03+00:00</t>
+    <t>2024-09-18T14:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -583,7 +583,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -2201,7 +2201,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:38:31+00:00</t>
+    <t>2024-09-18T14:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:12+00:00</t>
+    <t>2024-09-18T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:51+00:00</t>
+    <t>2024-09-18T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:41:10+00:00</t>
+    <t>2024-09-18T15:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:16+00:00</t>
+    <t>2024-09-18T15:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:41+00:00</t>
+    <t>2024-09-18T15:26:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:56+00:00</t>
+    <t>2024-09-19T10:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:05:54+00:00</t>
+    <t>2024-09-19T10:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:11:41+00:00</t>
+    <t>2024-09-19T12:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/all-profiles.xlsx
+++ b/nr-add-sf/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:57:53+00:00</t>
+    <t>2024-09-19T13:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
